--- a/Docs/AT-ETX-2i10G.CBL04_24V.xlsx
+++ b/Docs/AT-ETX-2i10G.CBL04_24V.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyDocuments\ate\AutoTesters\TCL\ETX-2i-10G\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D0C358F-2F4B-43AC-96F0-6FEA48BA2D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B45FD3-6766-41E9-8635-3C184C931728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5505" yWindow="1335" windowWidth="21600" windowHeight="13845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -82,12 +82,6 @@
     <t>brown</t>
   </si>
   <si>
-    <t>green</t>
-  </si>
-  <si>
-    <t>white</t>
-  </si>
-  <si>
     <t>Please attach a label the with Cable Name to the cable</t>
   </si>
   <si>
@@ -98,6 +92,12 @@
   </si>
   <si>
     <t>18 AWG YELLOW-GREEN</t>
+  </si>
+  <si>
+    <t>yellow-green</t>
+  </si>
+  <si>
+    <t>blue</t>
   </si>
 </sst>
 </file>
@@ -250,7 +250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -318,7 +318,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -721,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,9 +734,8 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="25"/>
+        <v>14</v>
+      </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -812,7 +810,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -822,7 +820,7 @@
         <v>3</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -885,7 +883,7 @@
         <v>3</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D27" s="18"/>
     </row>
@@ -919,7 +917,7 @@
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="24" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C31" s="3">
         <v>25</v>
@@ -931,7 +929,7 @@
     </row>
     <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32" s="22" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C32" s="3">
         <f>C25</f>
@@ -959,7 +957,7 @@
     </row>
     <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/AT-ETX-2i10G.CBL04_24V.xlsx
+++ b/Docs/AT-ETX-2i10G.CBL04_24V.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyDocuments\ate\AutoTesters\TCL\ETX-2i-10G\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B45FD3-6766-41E9-8635-3C184C931728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38F0F8A-E11B-4A80-9CCA-BA703DA3BBAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5505" yWindow="1335" windowWidth="21600" windowHeight="13845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7335" yWindow="1725" windowWidth="20265" windowHeight="12780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -721,7 +721,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -865,7 +865,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="5">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="D25" s="18"/>
     </row>
@@ -932,12 +932,11 @@
         <v>15</v>
       </c>
       <c r="C32" s="3">
-        <f>C25</f>
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="D32" s="3">
         <f>$C$26*C32</f>
-        <v>800</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">

--- a/Docs/AT-ETX-2i10G.CBL04_24V.xlsx
+++ b/Docs/AT-ETX-2i10G.CBL04_24V.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyDocuments\ate\AutoTesters\TCL\ETX-2i-10G\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38F0F8A-E11B-4A80-9CCA-BA703DA3BBAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{680E50EC-C850-4F87-A5B0-568E860CA80C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7335" yWindow="1725" windowWidth="20265" windowHeight="12780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="1950" windowWidth="20265" windowHeight="12780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_Hlk100481485" localSheetId="0">Sheet1!$B$29</definedName>
+    <definedName name="_Hlk100481485" localSheetId="0">Sheet1!$B$30</definedName>
     <definedName name="_Hlk301858770" localSheetId="0">Sheet1!#REF!</definedName>
     <definedName name="OLE_LINK4" localSheetId="0">Sheet1!$A$1</definedName>
   </definedNames>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>Catalog number</t>
   </si>
@@ -98,6 +98,12 @@
   </si>
   <si>
     <t>blue</t>
+  </si>
+  <si>
+    <t>TY23M</t>
+  </si>
+  <si>
+    <t>TIE STRAP TY23M</t>
   </si>
 </sst>
 </file>
@@ -250,7 +256,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -266,9 +272,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -337,80 +340,19 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1657350</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2162175" y="3505200"/>
-          <a:ext cx="1362075" cy="495300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>13</xdr:row>
+          <xdr:row>14</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>1352550</xdr:colOff>
-          <xdr:row>22</xdr:row>
+          <xdr:row>23</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -445,6 +387,61 @@
                 </a14:hiddenFill>
               </a:ext>
             </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>57150</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>1819275</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>142875</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1029" name="Object 5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1029"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -718,10 +715,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -748,83 +745,88 @@
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="10" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="14"/>
+      <c r="D6" s="13"/>
     </row>
     <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="14"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="13"/>
     </row>
     <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="14"/>
-    </row>
-    <row r="9" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="6"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="13"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="15"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="13"/>
     </row>
     <row r="10" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="17">
-        <v>1</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>12</v>
-      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="14"/>
     </row>
     <row r="11" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="17">
-        <v>2</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>17</v>
+      <c r="B11" s="15"/>
+      <c r="C11" s="16">
+        <v>1</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="17">
+      <c r="B12" s="15"/>
+      <c r="C12" s="16">
+        <v>2</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16">
         <v>3</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D13" s="16" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
     </row>
     <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
@@ -858,104 +860,116 @@
     </row>
     <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
-      <c r="C24" s="20"/>
     </row>
     <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="5">
-        <v>180</v>
-      </c>
-      <c r="D25" s="18"/>
+      <c r="A25" s="2"/>
+      <c r="C25" s="19"/>
     </row>
     <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C26" s="5">
-        <v>4</v>
-      </c>
-      <c r="D26" s="18"/>
+        <v>180</v>
+      </c>
+      <c r="D26" s="17"/>
     </row>
     <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="5">
+        <v>4</v>
+      </c>
+      <c r="D27" s="17"/>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C28" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="18"/>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
+      <c r="D28" s="17"/>
     </row>
     <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B30" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C30" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D30" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="21" t="s">
+    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B31" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C31" s="3">
         <v>1</v>
       </c>
-      <c r="D30" s="3">
-        <f>$C$26*C30</f>
+      <c r="D31" s="3">
+        <f>$C$27*C31</f>
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="24" t="s">
+    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C32" s="3">
         <v>25</v>
       </c>
-      <c r="D31" s="3">
-        <f>$C$26*C31</f>
+      <c r="D32" s="3">
+        <f>$C$27*C32</f>
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="22" t="s">
+    <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B33" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C33" s="3">
         <v>1</v>
       </c>
-      <c r="D32" s="3">
-        <f>$C$26*C32</f>
+      <c r="D33" s="3">
+        <f>$C$27*C33</f>
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="22">
+    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B34" s="21">
         <v>3200030</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C34" s="5">
         <v>6</v>
       </c>
-      <c r="D33" s="3">
-        <f>$C$26*C33</f>
+      <c r="D34" s="3">
+        <f>$C$27*C34</f>
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D34" s="6"/>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="18" t="s">
+    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B35" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="5">
+        <v>1</v>
+      </c>
+      <c r="D35" s="3">
+        <f>$C$27*C35</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="17" t="s">
         <v>13</v>
       </c>
     </row>
@@ -973,13 +987,13 @@
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
+                <xdr:row>14</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>1352550</xdr:colOff>
-                <xdr:row>22</xdr:row>
+                <xdr:row>23</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </to>
             </anchor>
@@ -990,6 +1004,31 @@
         <oleObject progId="SmartDraw.2" shapeId="1027" r:id="rId4"/>
       </mc:Fallback>
     </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="SmartDraw.2" shapeId="1029" r:id="rId6">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>57150</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>1819275</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="SmartDraw.2" shapeId="1029" r:id="rId6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </oleObjects>
 </worksheet>
 </file>